--- a/benchmark/AmericanVSEuropean.xlsx
+++ b/benchmark/AmericanVSEuropean.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\si\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\si\Personal\Program\de-am\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="9630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="CEV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>AddSimpleDiscountCurveToModel</t>
   </si>
@@ -278,6 +279,27 @@
   </si>
   <si>
     <t>American</t>
+  </si>
+  <si>
+    <t>EuroOption</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>TimeToExpiry</t>
+  </si>
+  <si>
+    <t>CEV</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Call-Put Parity</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1333,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f ca="1">C4</f>
+        <f t="shared" ref="C15:C20" ca="1" si="0">C4</f>
         <v>Orange</v>
       </c>
     </row>
@@ -1320,7 +1342,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="7">
-        <f ca="1">C5</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44294</v>
       </c>
     </row>
@@ -1329,7 +1351,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1">C6</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1338,7 +1360,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1">C7</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1347,7 +1369,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f ca="1">C8</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Call</v>
       </c>
       <c r="D19" s="2" t="str">
@@ -1360,7 +1382,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f ca="1">C9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Buy</v>
       </c>
     </row>
@@ -1383,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1485,4 +1507,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">100/E3</f>
+        <v>101.0050167084168</v>
+      </c>
+      <c r="E3">
+        <f ca="1">EXP(-0.01)</f>
+        <v>0.99004983374916811</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <f ca="1">_xll.EuroOption($C$3,$C$4,$C$5,C6,$C$7:$E$7,$C$8)</f>
+        <v>1.7686777754723599</v>
+      </c>
+      <c r="D9" s="6">
+        <f ca="1">_xll.EuroOption($C$3,$C$4,$C$5,D6,$C$7:$E$7,$C$8)</f>
+        <v>0.76366106705555103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f ca="1">C9*$E$3</f>
+        <v>1.7510791375622585</v>
+      </c>
+      <c r="D10">
+        <f ca="1">D9*$E$3</f>
+        <v>0.75606251247906064</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <f ca="1">C10-D10</f>
+        <v>0.99501662508319788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f ca="1">E3*(C3-C4)</f>
+        <v>0.99501662508319277</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f ca="1">D12-D13</f>
+        <v>5.1070259132757201E-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>